--- a/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_male_50_vs_3_ImmuneGene_List.xlsx
+++ b/GSE107451/processed_data/ranked_ImmuneGene_List/DGRP551_male_50_vs_3_ImmuneGene_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -48,51 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">TotX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listericin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rac2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drsl5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DptA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CecA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtl</t>
   </si>
 </sst>
 </file>
@@ -528,396 +483,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24.0960331310045</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.91631971216405</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.67468027773237</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.53280550970312</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.000411174839776296</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0327327421468973</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>130.141656956771</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.21510013667345</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.637498244157584</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.47467645122783</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000511469854245361</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0391805209101163</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>137.661866345964</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.14275318962262</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.624452751272757</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.43140963868806</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000600453134609783</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0443243586639222</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18.0007721988836</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.54534796503693</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.05436139059647</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.18607426862541</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00144217570119518</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0861063727478297</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.6349314652454</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.41326135417073</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.40123490051715</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.08727036766547</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00202003776195325</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.110085279376245</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13.5917436076827</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.18134399805432</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.2145906822043</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.79119028528635</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00525145890957331</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.213460328896443</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>13.1303357715716</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.07052400794901</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.23488287637677</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.71626046810589</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00660239519015479</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.249355576483986</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>65.6563551282332</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.1942274093701</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.834380348058825</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.62976880325015</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00854429537274733</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.297766860200465</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25.5524106191464</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.16400143965084</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.34442772677246</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.35341876446315</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0186016719050304</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.513760462138934</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n">
-        <v>36.8723915257537</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.67350597651393</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.13704849541946</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.35126820648724</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.018709542487195</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.514651210765486</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n">
-        <v>187.761295738079</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.30724436238583</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.566167974450602</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.30893378180629</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0209472560468372</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.546918710933498</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6.76449503793337</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.63083775751812</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.90047217975378</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.2861235504355</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0222470315962271</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.56628807699487</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11.6323640260996</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.27396460846135</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.95102950754787</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.19062017869377</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0284792896775577</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.660719520519338</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>14.7029244056755</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.71154521704714</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.75233040837942</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.11806243805336</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0341697801324514</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.723483678918958</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n">
-        <v>101.002846668878</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.3948375524724</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.688365590656098</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.02630342278287</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0427337007303342</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.820325413546841</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
